--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2717.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2717.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16733058040424</v>
+        <v>1.599562883377075</v>
       </c>
       <c r="B1">
-        <v>2.40298851679462</v>
+        <v>3.780060529708862</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.409914970397949</v>
       </c>
       <c r="D1">
-        <v>2.355978836945377</v>
+        <v>0.6090931296348572</v>
       </c>
       <c r="E1">
-        <v>1.213932082939115</v>
+        <v>0.9535717964172363</v>
       </c>
     </row>
   </sheetData>
